--- a/testing results/test-data.xlsx
+++ b/testing results/test-data.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Pressure Gradient</t>
   </si>
   <si>
-    <t xml:space="preserve">Wind Gradient</t>
+    <t xml:space="preserve">Dew Point</t>
   </si>
 </sst>
 </file>
@@ -112,12 +112,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -141,13 +145,12 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="Q98" activeCellId="0" sqref="Q98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -175,8 +178,8 @@
         <f aca="false">INT(B3-B2)</f>
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>4</v>
+      <c r="D2" s="2" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -190,8 +193,8 @@
         <f aca="false">INT(B4-B3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>4</v>
+      <c r="D3" s="2" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -205,8 +208,8 @@
         <f aca="false">INT(B5-B4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>5</v>
+      <c r="D4" s="2" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,8 +223,8 @@
         <f aca="false">INT(B6-B5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>7</v>
+      <c r="D5" s="2" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -235,8 +238,8 @@
         <f aca="false">INT(B7-B6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>5</v>
+      <c r="D6" s="2" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,8 +253,8 @@
         <f aca="false">INT(B8-B7)</f>
         <v>-1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>5</v>
+      <c r="D7" s="2" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,8 +268,8 @@
         <f aca="false">INT(B9-B8)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>5</v>
+      <c r="D8" s="2" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,8 +283,8 @@
         <f aca="false">INT(B10-B9)</f>
         <v>7</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>3</v>
+      <c r="D9" s="2" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -295,8 +298,8 @@
         <f aca="false">INT(B11-B10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>4</v>
+      <c r="D10" s="2" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,8 +313,8 @@
         <f aca="false">INT(B12-B11)</f>
         <v>-8</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>4</v>
+      <c r="D11" s="2" t="n">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,8 +328,8 @@
         <f aca="false">INT(B13-B12)</f>
         <v>-5</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>6</v>
+      <c r="D12" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,8 +343,8 @@
         <f aca="false">INT(B14-B13)</f>
         <v>4</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>6</v>
+      <c r="D13" s="2" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,8 +358,8 @@
         <f aca="false">INT(B15-B14)</f>
         <v>-3</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>3</v>
+      <c r="D14" s="2" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,8 +373,8 @@
         <f aca="false">INT(B16-B15)</f>
         <v>13</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>8</v>
+      <c r="D15" s="2" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,8 +388,8 @@
         <f aca="false">INT(B17-B16)</f>
         <v>-9</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>3</v>
+      <c r="D16" s="2" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,8 +403,8 @@
         <f aca="false">INT(B18-B17)</f>
         <v>2</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>6</v>
+      <c r="D17" s="2" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,8 +418,8 @@
         <f aca="false">INT(B19-B18)</f>
         <v>-1</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>5</v>
+      <c r="D18" s="2" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,8 +433,8 @@
         <f aca="false">INT(B20-B19)</f>
         <v>-16</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>6</v>
+      <c r="D19" s="2" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,8 +448,8 @@
         <f aca="false">INT(B21-B20)</f>
         <v>-16</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>9</v>
+      <c r="D20" s="2" t="n">
+        <v>9.1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,8 +463,8 @@
         <f aca="false">INT(B22-B21)</f>
         <v>-5</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>11</v>
+      <c r="D21" s="2" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,8 +478,8 @@
         <f aca="false">INT(B23-B22)</f>
         <v>6</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>8</v>
+      <c r="D22" s="2" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,8 +493,8 @@
         <f aca="false">INT(B24-B23)</f>
         <v>2</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>4</v>
+      <c r="D23" s="2" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,8 +508,8 @@
         <f aca="false">INT(B25-B24)</f>
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>4</v>
+      <c r="D24" s="2" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,8 +523,8 @@
         <f aca="false">INT(B26-B25)</f>
         <v>12</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>5</v>
+      <c r="D25" s="2" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -535,8 +538,8 @@
         <f aca="false">INT(B27-B26)</f>
         <v>7</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>7</v>
+      <c r="D26" s="2" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,8 +553,8 @@
         <f aca="false">INT(B28-B27)</f>
         <v>-6</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>5</v>
+      <c r="D27" s="2" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,8 +568,8 @@
         <f aca="false">INT(B29-B28)</f>
         <v>-10</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>3</v>
+      <c r="D28" s="2" t="n">
+        <v>8.3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,8 +583,8 @@
         <f aca="false">INT(B30-B29)</f>
         <v>-4</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>5</v>
+      <c r="D29" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,8 +598,8 @@
         <f aca="false">INT(B31-B30)</f>
         <v>-2</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>6</v>
+      <c r="D30" s="2" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,8 +613,8 @@
         <f aca="false">INT(B32-B31)</f>
         <v>-1</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>8</v>
+      <c r="D31" s="2" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,8 +628,8 @@
         <f aca="false">INT(B33-B32)</f>
         <v>-1</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>7</v>
+      <c r="D32" s="2" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,8 +643,8 @@
         <f aca="false">INT(B34-B33)</f>
         <v>-1</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>4</v>
+      <c r="D33" s="2" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,8 +658,8 @@
         <f aca="false">INT(B35-B34)</f>
         <v>1</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>6</v>
+      <c r="D34" s="2" t="n">
+        <v>9.3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,8 +673,8 @@
         <f aca="false">INT(B36-B35)</f>
         <v>11</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>4</v>
+      <c r="D35" s="2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,8 +688,8 @@
         <f aca="false">INT(B37-B36)</f>
         <v>-1</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>4</v>
+      <c r="D36" s="2" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,8 +703,8 @@
         <f aca="false">INT(B38-B37)</f>
         <v>-4</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>3</v>
+      <c r="D37" s="2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,8 +718,8 @@
         <f aca="false">INT(B39-B38)</f>
         <v>-5</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>4</v>
+      <c r="D38" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,8 +733,8 @@
         <f aca="false">INT(B40-B39)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>9</v>
+      <c r="D39" s="2" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,8 +748,8 @@
         <f aca="false">INT(B41-B40)</f>
         <v>4</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>7</v>
+      <c r="D40" s="2" t="n">
+        <v>-2.1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,8 +763,8 @@
         <f aca="false">INT(B42-B41)</f>
         <v>8</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>9</v>
+      <c r="D41" s="2" t="n">
+        <v>-4.2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,8 +778,8 @@
         <f aca="false">INT(B43-B42)</f>
         <v>12</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>5</v>
+      <c r="D42" s="2" t="n">
+        <v>-3.4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,8 +793,8 @@
         <f aca="false">INT(B44-B43)</f>
         <v>3</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>6</v>
+      <c r="D43" s="2" t="n">
+        <v>-5.1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,8 +808,8 @@
         <f aca="false">INT(B45-B44)</f>
         <v>3</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>10</v>
+      <c r="D44" s="2" t="n">
+        <v>-6.1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,8 +823,8 @@
         <f aca="false">INT(B46-B45)</f>
         <v>-6</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>10</v>
+      <c r="D45" s="2" t="n">
+        <v>-8.6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,8 +838,8 @@
         <f aca="false">INT(B47-B46)</f>
         <v>-10</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>9</v>
+      <c r="D46" s="2" t="n">
+        <v>-4.2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,8 +853,8 @@
         <f aca="false">INT(B48-B47)</f>
         <v>-7</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>6</v>
+      <c r="D47" s="2" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,8 +868,8 @@
         <f aca="false">INT(B49-B48)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>6</v>
+      <c r="D48" s="2" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,8 +883,8 @@
         <f aca="false">INT(B50-B49)</f>
         <v>-7</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>7</v>
+      <c r="D49" s="2" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,8 +898,8 @@
         <f aca="false">INT(B51-B50)</f>
         <v>4</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>7</v>
+      <c r="D50" s="2" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,8 +913,8 @@
         <f aca="false">INT(B52-B51)</f>
         <v>-6</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>6</v>
+      <c r="D51" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,8 +928,8 @@
         <f aca="false">INT(B53-B52)</f>
         <v>3</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>7</v>
+      <c r="D52" s="2" t="n">
+        <v>7.7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,8 +943,8 @@
         <f aca="false">INT(B54-B53)</f>
         <v>6</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>5</v>
+      <c r="D53" s="2" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,8 +958,8 @@
         <f aca="false">INT(B55-B54)</f>
         <v>9</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>4</v>
+      <c r="D54" s="2" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,8 +973,8 @@
         <f aca="false">INT(B56-B55)</f>
         <v>-1</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>6</v>
+      <c r="D55" s="2" t="n">
+        <v>8.3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,8 +988,8 @@
         <f aca="false">INT(B57-B56)</f>
         <v>2</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>7</v>
+      <c r="D56" s="2" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,8 +1003,8 @@
         <f aca="false">INT(B58-B57)</f>
         <v>9</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>4</v>
+      <c r="D57" s="2" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,8 +1018,8 @@
         <f aca="false">INT(B59-B58)</f>
         <v>3</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>3</v>
+      <c r="D58" s="2" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,8 +1033,8 @@
         <f aca="false">INT(B60-B59)</f>
         <v>-5</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>3</v>
+      <c r="D59" s="2" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,8 +1048,8 @@
         <f aca="false">INT(B61-B60)</f>
         <v>-5</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>4</v>
+      <c r="D60" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,8 +1063,8 @@
         <f aca="false">INT(B62-B61)</f>
         <v>-2</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>4</v>
+      <c r="D61" s="2" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,8 +1078,8 @@
         <f aca="false">INT(B63-B62)</f>
         <v>-2</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>3</v>
+      <c r="D62" s="2" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,8 +1093,8 @@
         <f aca="false">INT(B64-B63)</f>
         <v>-4</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>2</v>
+      <c r="D63" s="2" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,8 +1108,8 @@
         <f aca="false">INT(B65-B64)</f>
         <v>6</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>5</v>
+      <c r="D64" s="2" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,8 +1123,8 @@
         <f aca="false">INT(B66-B65)</f>
         <v>2</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>6</v>
+      <c r="D65" s="2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,8 +1138,8 @@
         <f aca="false">INT(B67-B66)</f>
         <v>-6</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>4</v>
+      <c r="D66" s="2" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,8 +1153,8 @@
         <f aca="false">INT(B68-B67)</f>
         <v>-3</v>
       </c>
-      <c r="D67" s="0" t="n">
-        <v>3</v>
+      <c r="D67" s="2" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,8 +1168,8 @@
         <f aca="false">INT(B69-B68)</f>
         <v>-4</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>3</v>
+      <c r="D68" s="2" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,8 +1183,8 @@
         <f aca="false">INT(B70-B69)</f>
         <v>-10</v>
       </c>
-      <c r="D69" s="0" t="n">
-        <v>4</v>
+      <c r="D69" s="2" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,8 +1198,8 @@
         <f aca="false">INT(B71-B70)</f>
         <v>-12</v>
       </c>
-      <c r="D70" s="0" t="n">
-        <v>9</v>
+      <c r="D70" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,8 +1213,8 @@
         <f aca="false">INT(B72-B71)</f>
         <v>4</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>11</v>
+      <c r="D71" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,8 +1228,8 @@
         <f aca="false">INT(B73-B72)</f>
         <v>-7</v>
       </c>
-      <c r="D72" s="0" t="n">
-        <v>8</v>
+      <c r="D72" s="2" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,8 +1243,8 @@
         <f aca="false">INT(B74-B73)</f>
         <v>15</v>
       </c>
-      <c r="D73" s="0" t="n">
-        <v>10</v>
+      <c r="D73" s="2" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,8 +1258,8 @@
         <f aca="false">INT(B75-B74)</f>
         <v>7</v>
       </c>
-      <c r="D74" s="0" t="n">
-        <v>8</v>
+      <c r="D74" s="2" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,8 +1273,8 @@
         <f aca="false">INT(B76-B75)</f>
         <v>6</v>
       </c>
-      <c r="D75" s="0" t="n">
-        <v>5</v>
+      <c r="D75" s="2" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,8 +1288,8 @@
         <f aca="false">INT(B77-B76)</f>
         <v>4</v>
       </c>
-      <c r="D76" s="0" t="n">
-        <v>5</v>
+      <c r="D76" s="2" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,8 +1303,8 @@
         <f aca="false">INT(B78-B77)</f>
         <v>-5</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>6</v>
+      <c r="D77" s="2" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,8 +1318,8 @@
         <f aca="false">INT(B79-B78)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="0" t="n">
-        <v>6</v>
+      <c r="D78" s="2" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,8 +1333,8 @@
         <f aca="false">INT(B80-B79)</f>
         <v>3</v>
       </c>
-      <c r="D79" s="0" t="n">
-        <v>6</v>
+      <c r="D79" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,8 +1348,8 @@
         <f aca="false">INT(B81-B80)</f>
         <v>-3</v>
       </c>
-      <c r="D80" s="0" t="n">
-        <v>4</v>
+      <c r="D80" s="2" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,8 +1363,8 @@
         <f aca="false">INT(B82-B81)</f>
         <v>-2</v>
       </c>
-      <c r="D81" s="0" t="n">
-        <v>5</v>
+      <c r="D81" s="2" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,8 +1378,8 @@
         <f aca="false">INT(B83-B82)</f>
         <v>-2</v>
       </c>
-      <c r="D82" s="0" t="n">
-        <v>3</v>
+      <c r="D82" s="2" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,8 +1393,8 @@
         <f aca="false">INT(B84-B83)</f>
         <v>-4</v>
       </c>
-      <c r="D83" s="0" t="n">
-        <v>4</v>
+      <c r="D83" s="2" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,8 +1408,8 @@
         <f aca="false">INT(B85-B84)</f>
         <v>-2</v>
       </c>
-      <c r="D84" s="0" t="n">
-        <v>4</v>
+      <c r="D84" s="2" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,8 +1423,8 @@
         <f aca="false">INT(B86-B85)</f>
         <v>-7</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>6</v>
+      <c r="D85" s="2" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,8 +1438,8 @@
         <f aca="false">INT(B87-B86)</f>
         <v>8</v>
       </c>
-      <c r="D86" s="0" t="n">
-        <v>8</v>
+      <c r="D86" s="2" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,8 +1453,8 @@
         <f aca="false">INT(B88-B87)</f>
         <v>3</v>
       </c>
-      <c r="D87" s="0" t="n">
-        <v>7</v>
+      <c r="D87" s="2" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,8 +1468,8 @@
         <f aca="false">INT(B89-B88)</f>
         <v>2</v>
       </c>
-      <c r="D88" s="0" t="n">
-        <v>9</v>
+      <c r="D88" s="2" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,8 +1483,8 @@
         <f aca="false">INT(B90-B89)</f>
         <v>-1</v>
       </c>
-      <c r="D89" s="0" t="n">
-        <v>7</v>
+      <c r="D89" s="2" t="n">
+        <v>7.3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,8 +1498,8 @@
         <f aca="false">INT(B91-B90)</f>
         <v>-7</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>4</v>
+      <c r="D90" s="2" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,8 +1512,8 @@
       <c r="C91" s="0" t="n">
         <v>-7</v>
       </c>
-      <c r="D91" s="0" t="n">
-        <v>3</v>
+      <c r="D91" s="2" t="n">
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
